--- a/Assets/Excel/Items/ConsumableDB_Sheet.xlsx
+++ b/Assets/Excel/Items/ConsumableDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E552725A-E357-4C3E-B11F-636D9F2C2EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3760E4B9-3759-4FDF-B732-C6DE8362B6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>Consumable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,14 +454,14 @@
     <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,31 +490,34 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10301011</v>
       </c>
@@ -535,15 +542,15 @@
       <c r="I2">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
@@ -559,8 +566,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10301021</v>
       </c>
@@ -585,12 +595,12 @@
       <c r="I3">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
@@ -607,6 +617,9 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/Items/ConsumableDB_Sheet.xlsx
+++ b/Assets/Excel/Items/ConsumableDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3760E4B9-3759-4FDF-B732-C6DE8362B6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9592F25-300E-40B4-8ED1-E35E7A4BF92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>_health</t>
   </si>
   <si>
-    <t>_meleeAtk</t>
-  </si>
-  <si>
     <t>_magicAtk</t>
   </si>
   <si>
@@ -114,6 +111,10 @@
   </si>
   <si>
     <t>_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_physicalAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +443,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -490,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -499,22 +500,22 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -522,16 +523,16 @@
         <v>10301011</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -546,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>20</v>
@@ -575,16 +576,16 @@
         <v>10301021</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -599,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>0</v>

--- a/Assets/Excel/Items/ConsumableDB_Sheet.xlsx
+++ b/Assets/Excel/Items/ConsumableDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9592F25-300E-40B4-8ED1-E35E7A4BF92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A3726-B5E4-45AD-A135-393CB58AE068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3">
         <v>0</v>
